--- a/biology/Zoologie/Conus_nunesi/Conus_nunesi.xlsx
+++ b/biology/Zoologie/Conus_nunesi/Conus_nunesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus nunesi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de l'Angola.
 </t>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus nunesi a été décrite pour la première fois en 2018 par le malacologiste Christfried Schönherr (d)[1] dans « Conchylia »[2],[3].
-Synonymes
-Conus (Lautoconus) nunesi Schönherr, 2018 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus nunesi a été décrite pour la première fois en 2018 par le malacologiste Christfried Schönherr (d) dans « Conchylia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_nunesi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_nunesi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conus (Lautoconus) nunesi Schönherr, 2018 · appellation alternative
 Varioconus nunesi (Schönherr, 2018) · non accepté</t>
         </is>
       </c>
